--- a/ArduinoCode/GradCap/paren_balance.xlsx
+++ b/ArduinoCode/GradCap/paren_balance.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdo\Dropbox\github\GraduationCap2017\ArduinoCode\GradCap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHib-Mark-MDO47\GraduationCap2017\ArduinoCode\GradCap\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,21 +14,12 @@
   <sheets>
     <sheet name="mdo" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="184">
-  <si>
-    <t>uint8_t  leds_per_ring[NUM_RINGS_PER_DISK]  = { 32, 24, 16, 12,  8,  1 };</t>
-  </si>
-  <si>
-    <t>uint8_t  leds_per_ringqrtr[NUM_RINGS_PER_DISK]  = { 8, 6, 4, 3,  2,  1 };</t>
-  </si>
-  <si>
-    <t>uint8_t  start_per_ring[NUM_RINGS_PER_DISK] = {  0, 32, 56, 72, 84, 92 };</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="276">
   <si>
     <t>const int8_t ptrnOff[]      = { SUPRSPCL_STOP_WHEN_DONE, SPCL_DRAW_BKGD_CLR_BLACK, SUPRSPCL_SKIP_STEP2, SUPRSPCL_SKIP_STEP1, SUPRSPCL_END_OF_PTRNS };</t>
   </si>
@@ -51,12 +42,6 @@
     <t xml:space="preserve">   STEP2_FADEDISK2_CLR_BKGND, STEP2_FADEDISK2_CLR_FRGND, STEP2_FADEDISK2_CLR_BLNKNG, STEP2_FADEDISK2_CLR_BLACK, SUPRSPCL_END_OF_PTRNS };</t>
   </si>
   <si>
-    <t>const int8_t ptrnDownTheDrain[] = { SUPRSPCL_STOP_WHEN_DONE, SUPRSPCL_SKIP_STEP1, STEP2_DRAIN_DOWN_CLR_BLACK, SUPRSPCL_END_OF_PTRNS };</t>
-  </si>
-  <si>
-    <t>const int8_t ptrnUpTheDrain[] =   { SUPRSPCL_STOP_WHEN_DONE, SUPRSPCL_SKIP_STEP1, STEP2_DRAIN_UP_CLR_BLACK,   SUPRSPCL_END_OF_PTRNS };</t>
-  </si>
-  <si>
     <t xml:space="preserve">const int8_t ptrnRingQrtrDraw[] = { SUPRSPCL_STOP_WHEN_DONE, SUPRSPCL_SKIP_STEP1, </t>
   </si>
   <si>
@@ -129,9 +114,6 @@
     <t xml:space="preserve">      }</t>
   </si>
   <si>
-    <t xml:space="preserve">      if (SUPRSPCL_SKIP_STEP2 == this_ptrn_token) {</t>
-  </si>
-  <si>
     <t xml:space="preserve">      if (SUPRSPCL_STOP_WHEN_DONE == this_ptrn_token) {</t>
   </si>
   <si>
@@ -177,9 +159,6 @@
     <t xml:space="preserve">      else if ((SPCL_DRAW_BKGD_CLR_BLACK == this_ptrn_token) &amp;&amp; (0 != do_specials)) {</t>
   </si>
   <si>
-    <t xml:space="preserve">      if ((this_ptrn_token &lt; 0) &amp;&amp; (this_ptrn_token &gt; STEP2_DRAW_RING_CLR_BLNKNG)) { // all at once pattern</t>
-  </si>
-  <si>
     <t xml:space="preserve">        if (PER_LED_DRAW_BLNKING == this_ptrn_token) {</t>
   </si>
   <si>
@@ -264,39 +243,21 @@
     <t xml:space="preserve">  for (ptrn_token_array_ptr_idx = 0; ptrn_token_array_ptr[ptrn_token_array_ptr_idx] != SUPRSPCL_END_OF_PTRNS; ptrn_token_array_ptr_idx++) {</t>
   </si>
   <si>
-    <t xml:space="preserve">    if (SUPRSPCL_SKIP_STEP2 == this_ptrn_token) {</t>
-  </si>
-  <si>
     <t xml:space="preserve">    } // end if SUPRSPCL_SKIP_STEP2</t>
   </si>
   <si>
-    <t xml:space="preserve">    if (SUPRSPCL_DRWTRGT_SHDW1_NONSTICKY == this_ptrn_token) {</t>
-  </si>
-  <si>
     <t xml:space="preserve">    } // end if SUPRSPCL_DRWTRGT_SHDW1_NONSTICKY</t>
   </si>
   <si>
-    <t xml:space="preserve">    if (STEP2_FADEDLY_ADD_100 == this_ptrn_token) {</t>
-  </si>
-  <si>
     <t xml:space="preserve">    } // end if STEP2_FADEDLY_ADD_100</t>
   </si>
   <si>
-    <t xml:space="preserve">    if (STEP2_FADEDLY_SUB_100 == this_ptrn_token) {</t>
-  </si>
-  <si>
     <t xml:space="preserve">    } // end if STEP2_FADEDLY_SUB_100</t>
   </si>
   <si>
-    <t xml:space="preserve">    if (STEP2_FADEFCT_MLT_2 == this_ptrn_token) {</t>
-  </si>
-  <si>
     <t xml:space="preserve">    } // end if STEP2_FADEFCT_MLT_2</t>
   </si>
   <si>
-    <t xml:space="preserve">    if (STEP2_FADEFCT_DIV_2 == this_ptrn_token) {</t>
-  </si>
-  <si>
     <t xml:space="preserve">    } // end if STEP2_FADEFCT_DIV_2</t>
   </si>
   <si>
@@ -438,36 +399,15 @@
     <t>} // end doPatternDraw()</t>
   </si>
   <si>
-    <t xml:space="preserve">   for (this_effect_ptr_idx = 1; this_effect_ptr_idx &lt;= count_of_this_effect_ptr; this_effect_ptr_idx++) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   }</t>
-  </si>
-  <si>
     <t>} // end copyEffectFromPROGMEM()</t>
   </si>
   <si>
-    <t>void saveSurroundEffectLEDs(int8_t ltr_index, const int8_t * effect_LEDidx_array_ptr, int8_t draw_target, CRGB * save_here) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  if (ltr_index &gt;= EFFECT_POINTERS_OFFSET) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    for (uint8_t i = 1; i &lt;= -effect_LEDidx_array_ptr[0]; i++) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    } // end save the original LED info for surround effect area</t>
-  </si>
-  <si>
     <t>} // end saveSurroundEffectLEDs()</t>
   </si>
   <si>
     <t>CRGB calcColor_step2DawClrMax(int8_t thePtrnToken, int8_t tokenSmallest, CRGB blinking, CRGB foreground, CRGB background) {</t>
   </si>
   <si>
-    <t xml:space="preserve">  switch ((thePtrnToken - tokenSmallest) % STEP2_DRAW_CLR_MAX) {</t>
-  </si>
-  <si>
     <t>} // end calcColor_step2DawClrMax</t>
   </si>
   <si>
@@ -483,9 +423,6 @@
     <t>} // end doDwell()</t>
   </si>
   <si>
-    <t>int16_t doPtrnShowDwell(int8_t draw_target, int16_t dwell, int16_t called_from) {</t>
-  </si>
-  <si>
     <t xml:space="preserve">  if ((nextPattern != pattern) &amp;&amp; ( nextPattern != NO_BUTTON_CHANGE)) {</t>
   </si>
   <si>
@@ -571,6 +508,345 @@
   </si>
   <si>
     <t>void copyEffectFromPROGMEM(uint8_t thisLED) {</t>
+  </si>
+  <si>
+    <t>const uint8_t  leds_per_ring[NUM_RINGS_PER_DISK]  = { 32, 24, 16, 12, 8, 1 };</t>
+  </si>
+  <si>
+    <t>const uint8_t  leds_per_ringqrtr[NUM_RINGS_PER_DISK]  = { 8, 6, 4, 3, 2, 1 };</t>
+  </si>
+  <si>
+    <t>const uint8_t  start_per_ring[NUM_RINGS_PER_DISK] = {  0, 32, 56, 72, 84, 92 };</t>
+  </si>
+  <si>
+    <t>const uint8_t  radar_adv_per_LED_per_ring[NUM_RINGS_PER_DISK] = { 0, 192, 128, 96, 64, 0 };</t>
+  </si>
+  <si>
+    <t>const int8_t ptrnJustWideDraw[] = { SPCL_DRAW_BKGD_CLR_BKGND, SUPRSPCL_SKIP_STEP2, PER_LED_DRAW_BLNKING_SRND_ALL, PER_LED_DRAW_FORE_LTR_ALL, SUPRSPCL_END_OF_PTRNS };</t>
+  </si>
+  <si>
+    <t>const int8_t ptrnDownTheDrain[] = { SUPRSPCL_SKIP_STEP1, STEP2_DRAIN_DOWN_CLR_BLACK, SUPRSPCL_END_OF_PTRNS };</t>
+  </si>
+  <si>
+    <t>const int8_t ptrnUpTheDrain[] =   { SUPRSPCL_SKIP_STEP1, STEP2_DRAIN_UP_CLR_BLACK,   SUPRSPCL_END_OF_PTRNS };</t>
+  </si>
+  <si>
+    <t>const int8_t ptrnDownTheDrainIn[] = { SUPRSPCL_SKIP_STEP1, STEP2_DRAIN_IN_DOWN, SUPRSPCL_END_OF_PTRNS };</t>
+  </si>
+  <si>
+    <t>const int8_t ptrnUpTheDrainIn[] =   { SUPRSPCL_SKIP_STEP1, STEP2_DRAIN_IN_UP,   SUPRSPCL_END_OF_PTRNS };</t>
+  </si>
+  <si>
+    <t>const int8_t ptrnHaunted[] =      { SUPRSPCL_SKIP_STEP1, STEP2_CPY_DSPLY_2_SHDW1, STEP2_HAUNTED_FROM_SHDW1, SUPRSPCL_END_OF_PTRNS };</t>
+  </si>
+  <si>
+    <t>// const int8_t ptrnRadarFromShdw1[] = { SUPRSPCL_SKIP_STEP1, STEP2_RADAR_XRAYMSK_CLEAR, STEP2_RADAR_XRAYMSK_OR_SHDW1_FRGND, STEP2_RADAR_FROM_SHDW1, SUPRSPCL_END_OF_PTRNS };</t>
+  </si>
+  <si>
+    <t>// const int8_t ptrnRadarFrgndFromShdw1[] = { SUPRSPCL_SKIP_STEP1, STEP2_RADAR_XRAYMSK_CLEAR, STEP2_RADAR_XRAYMSK_OR_SHDW1_FRGND, STEP2_RADAR_XRAY_SHDW1, SUPRSPCL_END_OF_PTRNS };</t>
+  </si>
+  <si>
+    <t>const int8_t ptrnRadarFrgndFromShdw1[] = { SUPRSPCL_SKIP_STEP1, STEP2_RADAR_XRAYMSK_CLEAR, STEP2_RADAR_XRAYMSK_OR_SHAPE, STEP2_RADAR_XRAY_SHDW1, SUPRSPCL_END_OF_PTRNS };</t>
+  </si>
+  <si>
+    <t>const int8_t ptrnCopyToShdw1[] = { SUPRSPCL_SKIP_STEP1, STEP2_CPY_DSPLY_2_SHDW1, SUPRSPCL_END_OF_PTRNS };</t>
+  </si>
+  <si>
+    <t>static uint32_t radar_xray_bitmask[3] = {0, 0, 0}; // bitmask where X-Ray LEDs are for STEP2_RADAR_XRAY_SHDW1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       if (oldPattern != pattern) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       for (uint8_t tmp = 0; (tmp &lt; 4) &amp;&amp; (0 == doDwell(1, 1)); tmp++) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       } // end loop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      } // end if SUPRSPCL_SKIP_STEP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      else if (SUPRSPCL_SKIP_STEP2 == this_ptrn_token) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      } // end if SUPRSPCL_SKIP_STEP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      else if (STEP1_I_AM_NOT_SYNC == this_ptrn_token) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      } // end if STEP1_I_AM_NOT_SYNC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      else if (STEP1_I_AM_SYNC_WAIT_ALL_SYNC == this_ptrn_token) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        while (0 == iamSyncAreWeAllSync()) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      } // end if STEP1_I_AM_SYNC_WAIT_ALL_SYNC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      if (STEP1_DELAY_100 == this_ptrn_token) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      } // end if STEP1_DELAY_100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      else if (STEP1_DELAY_1000 == this_ptrn_token) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      } // end if STEP1_DELAY_1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      else if (STEP1_DELAY_10000 == this_ptrn_token) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      } // end if STEP1_DELAY_10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      if ((this_ptrn_token &lt; 0) &amp;&amp; (this_ptrn_token &gt; STEP2_MAX_TOKENVAL)) { // all at once pattern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if (STEP2_DELAY_100 == this_ptrn_token) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    else if (STEP2_DELAY_1000 == this_ptrn_token) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    else if (STEP2_DELAY_10000 == this_ptrn_token) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    else if (SUPRSPCL_SKIP_STEP2 == this_ptrn_token) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    else if (STEP2_I_AM_NOT_SYNC == this_ptrn_token) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    } // end if STEP2_I_AM_NOT_SYNC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    else if (STEP2_I_AM_SYNC_WAIT_ALL_SYNC == this_ptrn_token) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      while (0 == iamSyncAreWeAllSync()) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    } // end if STEP2_I_AM_SYNC_WAIT_ALL_SYNC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    else if (SUPRSPCL_DRWTRGT_SHDW1_NONSTICKY == this_ptrn_token) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    else if (STEP2_FADEDLY_ADD_100 == this_ptrn_token) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    else if (STEP2_FADEDLY_SUB_100 == this_ptrn_token) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    else if (STEP2_FADEFCT_MLT_2 == this_ptrn_token) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    else if (STEP2_FADEFCT_DIV_2 == this_ptrn_token) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    } // end if STEP2_DRAIN_UP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    } // end if STEP2_DRAIN_IN_DOWN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    } // end if STEP2_DRAIN_IN_UP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    else if (STEP2_CPY_DSPLY_2_SHDW1 == this_ptrn_token) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      } // end copy loop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    } // end STEP2_CPY_DSPLY_2_SHDW1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    else if (STEP2_CPY_SHDW1_2_DSPLY == this_ptrn_token) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    } // end STEP2_CPY_SHDW1_2_DSPLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    else if (STEP2_HAUNTED_FROM_SHDW1 == this_ptrn_token) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      for (tmp_idx = 0; tmp_idx &lt; 40; tmp_idx++) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        switch (random8()/64) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        } // end random choice of color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        for (theLED = 0; theLED &lt; NUM_LEDS_PER_DISK; theLED++){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          if (led_display[TARGET_SHDW1+theLED] == tmp_color) { led_display[TARGET_DSPLAY+theLED] = tmp_color; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        } // end fill display with haunted color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (random8() &lt; 128) { // sometimes do double-blink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          for (theLED = 0; theLED &lt; NUM_LEDS_PER_DISK; theLED++){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if (led_display[TARGET_SHDW1+theLED] == tmp_color) { led_display[TARGET_DSPLAY+theLED] = tmp_color; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          } // end fill display with haunted color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      } // end loop doing the haunt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    } // end STEP2_HAUNTED_FROM_SHDW1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    else if (STEP2_RADAR_XRAYMSK_CLEAR == this_ptrn_token) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    } // end STEP2_RADAR_XRAYMSK_CLEAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    else if (STEP2_RADAR_XRAYMSK_OR_SHDW1_FRGND == this_ptrn_token) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      for (theLED = 0; theLED &lt; NUM_LEDS_PER_DISK; theLED++){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (led_display[TARGET_SHDW1+theLED] == foreground) { radar_xray_bitmask[idx_bitmsk32] |= bitmsk32; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (0 == bitmsk32) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          if (idx_bitmsk32 &gt; 2) { // should never get here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          } // end if something went horribly wrong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        } // end if need to cross bitmsk32 boundary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // if ((0 == theLED) || ((29 &lt;= theLED) &amp;&amp; (34 &gt; theLED))) { DEBUG_ERRORS_PRINT(F("   bitmsk32 info post increment. theLED=")) DEBUG_ERRORS_PRINT((uint16_t) theLED) DEBUG_ERRORS_PRINT(F(" idx_bitmsk32=")) DEBUG_ERRORS_PRINT((uint16_t) idx_bitmsk32) DEBUG_ERRORS_PRINT(F(" bitmsk32=")) DEBUG_ERRORS_PRINTLN((uint32_t) bitmsk32) } // end if debugging bitmask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      } // end loop to make bitmask for X-Ray cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    } // end STEP2_RADAR_XRAYMSK_OR_SHDW1_FRGND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    else if (STEP2_RADAR_XRAYMSK_OR_SHAPE == this_ptrn_token) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      for (ltr_ptr_idx = 1; ltr_ptr_idx &lt;= count_of_ltr_ptr; ltr_ptr_idx++) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      } // end for each theLED in ltr_ptr[]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    } // end STEP2_RADAR_XRAYMSK_OR_SHAPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    else if ((STEP2_RADAR_FROM_SHDW1 == this_ptrn_token) || (STEP2_RADAR_XRAY_SHDW1 == this_ptrn_token)) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      if (STEP2_RADAR_FROM_SHDW1 == this_ptrn_token) { // clear radar_xray_bitmask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      } // end if need to clear bitmask for X-Ray cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      for (tmp_idx = 0; tmp_idx &lt; leds_per_ring[0]; tmp_idx++) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          if (0 != (radar_xray_bitmask[idx_bitmsk32] &amp; bitmsk32)) { led_display[TARGET_DSPLAY+theLED].fadeToBlackBy(32); }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          else                                                    { led_display[TARGET_DSPLAY+theLED].fadeToBlackBy(128); }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          if (0 == bitmsk32) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          } // end if need to cross bitmsk32 boundary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        } // end loop to fade all previously drawn LEDs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        for (this_ring = 1; this_ring &lt; NUM_RINGS_PER_DISK-1; this_ring++) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        } // end RADAR for this_ring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      } // end RADAR for LED idx outer disk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    } // end STEP2_RADAR_FROM_SHDW1 or STEP2_RADAR_XRAY_SHDW1 for LED idx outer disk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  for (this_effect_ptr_idx = 1; this_effect_ptr_idx &lt;= count_of_this_effect_ptr; this_effect_ptr_idx++) {</t>
+  </si>
+  <si>
+    <t>void saveSurroundEffectLEDs(int8_t ltr_index, const int8_t * effect_LEDidx_array_ptr, int16_t draw_target, CRGB * save_here) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  for (uint8_t i = 1; i &lt;= -effect_LEDidx_array_ptr[0]; i++) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  } // end save the original LED info for surround effect area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  switch ((thePtrnToken - tokenSmallest) % TOKEN_DRAW_CLR_MAX) {</t>
+  </si>
+  <si>
+    <t>int16_t doPtrnShowDwell(int16_t draw_target, int16_t dwell, int16_t called_from) {</t>
+  </si>
+  <si>
+    <t>void setMySync(uint8_t yes) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  if (0 == yes) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  } else {</t>
+  </si>
+  <si>
+    <t>} // end setMySync()</t>
+  </si>
+  <si>
+    <t>int8_t areWeAllSync() {</t>
+  </si>
+  <si>
+    <t>} // end areWeAllSync()</t>
+  </si>
+  <si>
+    <t>int8_t iamSyncAreWeAllSync() {</t>
+  </si>
+  <si>
+    <t>} // end iamSyncAreWeAllSync()</t>
   </si>
 </sst>
 </file>
@@ -1411,26 +1687,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F207"/>
+  <dimension ref="A1:F321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="F164" sqref="F164"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="F157" sqref="F157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="B1" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1456,10 +1732,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>0</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1480,10 +1756,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>1</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1504,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F5" t="s">
-        <v>2</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1528,10 +1804,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>254</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>3</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1552,10 +1828,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>255</v>
+        <v>313</v>
       </c>
       <c r="F7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1576,10 +1852,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>256</v>
+        <v>314</v>
       </c>
       <c r="F8" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1600,10 +1876,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>257</v>
+        <v>315</v>
       </c>
       <c r="F9" t="s">
-        <v>6</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1624,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>258</v>
+        <v>316</v>
       </c>
       <c r="F10" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1641,17 +1917,17 @@
       </c>
       <c r="C11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>259</v>
+        <v>317</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1661,7 +1937,7 @@
       </c>
       <c r="B12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <f t="shared" si="2"/>
@@ -1672,10 +1948,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1689,17 +1965,17 @@
       </c>
       <c r="C13">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1709,7 +1985,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <f t="shared" si="2"/>
@@ -1720,10 +1996,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>282</v>
+        <v>339</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1737,17 +2013,17 @@
       </c>
       <c r="C15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>284</v>
+        <v>341</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1757,7 +2033,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <f t="shared" si="2"/>
@@ -1768,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>293</v>
+        <v>342</v>
       </c>
       <c r="F16" t="s">
-        <v>9</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1792,10 +2068,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1809,17 +2085,17 @@
       </c>
       <c r="C18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1833,17 +2109,17 @@
       </c>
       <c r="C19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1853,7 +2129,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <f t="shared" si="2"/>
@@ -1861,13 +2137,13 @@
       </c>
       <c r="D20">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1877,7 +2153,7 @@
       </c>
       <c r="B21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <f t="shared" si="2"/>
@@ -1888,10 +2164,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1905,17 +2181,17 @@
       </c>
       <c r="C22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1929,17 +2205,17 @@
       </c>
       <c r="C23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1949,21 +2225,21 @@
       </c>
       <c r="B24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E24">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1973,21 +2249,21 @@
       </c>
       <c r="B25">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1997,7 +2273,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <f t="shared" si="2"/>
@@ -2005,13 +2281,13 @@
       </c>
       <c r="D26">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2021,7 +2297,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <f t="shared" si="2"/>
@@ -2032,10 +2308,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2056,10 +2332,10 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2069,21 +2345,21 @@
       </c>
       <c r="B29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E29">
-        <v>386</v>
+        <v>412</v>
       </c>
       <c r="F29" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2093,21 +2369,21 @@
       </c>
       <c r="B30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E30">
-        <v>393</v>
+        <v>414</v>
       </c>
       <c r="F30" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2117,21 +2393,21 @@
       </c>
       <c r="B31">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>396</v>
+        <v>434</v>
       </c>
       <c r="F31" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2141,21 +2417,21 @@
       </c>
       <c r="B32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E32">
-        <v>458</v>
+        <v>437</v>
       </c>
       <c r="F32" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2176,10 +2452,10 @@
         <v>2</v>
       </c>
       <c r="E33">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="F33" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2200,10 +2476,10 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2213,21 +2489,21 @@
       </c>
       <c r="B35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E35">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2237,21 +2513,21 @@
       </c>
       <c r="B36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E36">
-        <v>510</v>
+        <v>445</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2261,21 +2537,21 @@
       </c>
       <c r="B37">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>531</v>
+        <v>454</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2293,13 +2569,13 @@
       </c>
       <c r="D38">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>539</v>
+        <v>463</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2317,13 +2593,13 @@
       </c>
       <c r="D39">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E39">
-        <v>543</v>
+        <v>466</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2333,21 +2609,21 @@
       </c>
       <c r="B40">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E40">
-        <v>546</v>
+        <v>501</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2357,21 +2633,21 @@
       </c>
       <c r="B41">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E41">
-        <v>547</v>
+        <v>507</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2381,21 +2657,21 @@
       </c>
       <c r="B42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E42">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2405,21 +2681,21 @@
       </c>
       <c r="B43">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E43">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2437,13 +2713,13 @@
       </c>
       <c r="D44">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2461,13 +2737,13 @@
       </c>
       <c r="D45">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E45">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="F45" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2485,13 +2761,13 @@
       </c>
       <c r="D46">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E46">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="F46" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2501,21 +2777,21 @@
       </c>
       <c r="B47">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2525,21 +2801,21 @@
       </c>
       <c r="B48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E48">
-        <v>564</v>
+        <v>600</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2557,13 +2833,13 @@
       </c>
       <c r="D49">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E49">
-        <v>565</v>
+        <v>637</v>
       </c>
       <c r="F49" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2573,21 +2849,21 @@
       </c>
       <c r="B50">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E50">
-        <v>569</v>
+        <v>645</v>
       </c>
       <c r="F50" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2608,10 +2884,10 @@
         <v>4</v>
       </c>
       <c r="E51">
-        <v>570</v>
+        <v>649</v>
       </c>
       <c r="F51" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2632,10 +2908,10 @@
         <v>3</v>
       </c>
       <c r="E52">
-        <v>574</v>
+        <v>652</v>
       </c>
       <c r="F52" t="s">
-        <v>46</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2656,10 +2932,10 @@
         <v>4</v>
       </c>
       <c r="E53">
-        <v>575</v>
+        <v>653</v>
       </c>
       <c r="F53" t="s">
-        <v>47</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2680,10 +2956,10 @@
         <v>3</v>
       </c>
       <c r="E54">
-        <v>584</v>
+        <v>656</v>
       </c>
       <c r="F54" t="s">
-        <v>48</v>
+        <v>184</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2704,10 +2980,10 @@
         <v>4</v>
       </c>
       <c r="E55">
-        <v>585</v>
+        <v>657</v>
       </c>
       <c r="F55" t="s">
-        <v>49</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2728,10 +3004,10 @@
         <v>3</v>
       </c>
       <c r="E56">
-        <v>594</v>
+        <v>660</v>
       </c>
       <c r="F56" t="s">
-        <v>50</v>
+        <v>186</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2752,10 +3028,10 @@
         <v>4</v>
       </c>
       <c r="E57">
-        <v>595</v>
+        <v>661</v>
       </c>
       <c r="F57" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2765,21 +3041,21 @@
       </c>
       <c r="B58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E58">
-        <v>604</v>
+        <v>663</v>
       </c>
       <c r="F58" t="s">
-        <v>50</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2789,21 +3065,21 @@
       </c>
       <c r="B59">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E59">
-        <v>607</v>
+        <v>665</v>
       </c>
       <c r="F59" t="s">
-        <v>52</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2813,21 +3089,21 @@
       </c>
       <c r="B60">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E60">
-        <v>609</v>
+        <v>667</v>
       </c>
       <c r="F60" t="s">
-        <v>53</v>
+        <v>189</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2841,17 +3117,17 @@
       </c>
       <c r="C61">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E61">
-        <v>612</v>
+        <v>670</v>
       </c>
       <c r="F61" t="s">
-        <v>54</v>
+        <v>190</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2861,7 +3137,7 @@
       </c>
       <c r="B62">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62">
         <f t="shared" si="2"/>
@@ -2869,13 +3145,13 @@
       </c>
       <c r="D62">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E62">
-        <v>615</v>
+        <v>673</v>
       </c>
       <c r="F62" t="s">
-        <v>55</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2893,13 +3169,13 @@
       </c>
       <c r="D63">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E63">
-        <v>617</v>
+        <v>674</v>
       </c>
       <c r="F63" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2917,13 +3193,13 @@
       </c>
       <c r="D64">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E64">
-        <v>619</v>
+        <v>677</v>
       </c>
       <c r="F64" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2937,17 +3213,17 @@
       </c>
       <c r="C65">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E65">
-        <v>621</v>
+        <v>678</v>
       </c>
       <c r="F65" t="s">
-        <v>58</v>
+        <v>194</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2957,21 +3233,21 @@
       </c>
       <c r="B66">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E66">
-        <v>623</v>
+        <v>681</v>
       </c>
       <c r="F66" t="s">
-        <v>56</v>
+        <v>195</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2981,21 +3257,21 @@
       </c>
       <c r="B67">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E67">
-        <v>625</v>
+        <v>684</v>
       </c>
       <c r="F67" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -3005,7 +3281,7 @@
       </c>
       <c r="B68">
         <f t="shared" ref="B68:B131" si="5">COUNTIF($F68,"*{*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68">
         <f t="shared" ref="C68:C131" si="6">COUNTIF($F68,"*}*")</f>
@@ -3013,13 +3289,13 @@
       </c>
       <c r="D68">
         <f t="shared" ref="D68:D131" si="7">D67+B68-C68</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E68">
-        <v>627</v>
+        <v>686</v>
       </c>
       <c r="F68" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -3037,13 +3313,13 @@
       </c>
       <c r="D69">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E69">
-        <v>628</v>
+        <v>687</v>
       </c>
       <c r="F69" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -3061,13 +3337,13 @@
       </c>
       <c r="D70">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E70">
-        <v>630</v>
+        <v>690</v>
       </c>
       <c r="F70" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -3081,17 +3357,17 @@
       </c>
       <c r="C71">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E71">
-        <v>632</v>
+        <v>691</v>
       </c>
       <c r="F71" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -3101,21 +3377,21 @@
       </c>
       <c r="B72">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E72">
-        <v>633</v>
+        <v>695</v>
       </c>
       <c r="F72" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -3125,21 +3401,21 @@
       </c>
       <c r="B73">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E73">
-        <v>635</v>
+        <v>696</v>
       </c>
       <c r="F73" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -3157,13 +3433,13 @@
       </c>
       <c r="D74">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E74">
-        <v>637</v>
+        <v>700</v>
       </c>
       <c r="F74" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -3177,17 +3453,17 @@
       </c>
       <c r="C75">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="E75">
-        <v>640</v>
+        <v>701</v>
       </c>
       <c r="F75" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -3208,10 +3484,10 @@
         <v>3</v>
       </c>
       <c r="E76">
-        <v>641</v>
+        <v>705</v>
       </c>
       <c r="F76" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -3232,10 +3508,10 @@
         <v>4</v>
       </c>
       <c r="E77">
-        <v>642</v>
+        <v>706</v>
       </c>
       <c r="F77" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -3245,21 +3521,21 @@
       </c>
       <c r="B78">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E78">
-        <v>644</v>
+        <v>715</v>
       </c>
       <c r="F78" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -3277,13 +3553,13 @@
       </c>
       <c r="D79">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E79">
-        <v>646</v>
+        <v>716</v>
       </c>
       <c r="F79" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -3301,13 +3577,13 @@
       </c>
       <c r="D80">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E80">
-        <v>649</v>
+        <v>725</v>
       </c>
       <c r="F80" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -3325,13 +3601,13 @@
       </c>
       <c r="D81">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E81">
-        <v>650</v>
+        <v>726</v>
       </c>
       <c r="F81" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -3349,13 +3625,13 @@
       </c>
       <c r="D82">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E82">
-        <v>653</v>
+        <v>735</v>
       </c>
       <c r="F82" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -3373,13 +3649,13 @@
       </c>
       <c r="D83">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E83">
-        <v>654</v>
+        <v>738</v>
       </c>
       <c r="F83" t="s">
-        <v>72</v>
+        <v>196</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -3389,21 +3665,21 @@
       </c>
       <c r="B84">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="E84">
-        <v>657</v>
+        <v>740</v>
       </c>
       <c r="F84" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -3417,17 +3693,17 @@
       </c>
       <c r="C85">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E85">
-        <v>658</v>
+        <v>743</v>
       </c>
       <c r="F85" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -3437,7 +3713,7 @@
       </c>
       <c r="B86">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86">
         <f t="shared" si="6"/>
@@ -3448,10 +3724,10 @@
         <v>5</v>
       </c>
       <c r="E86">
-        <v>661</v>
+        <v>746</v>
       </c>
       <c r="F86" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3465,17 +3741,17 @@
       </c>
       <c r="C87">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E87">
-        <v>664</v>
+        <v>748</v>
       </c>
       <c r="F87" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3493,13 +3769,13 @@
       </c>
       <c r="D88">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E88">
-        <v>665</v>
+        <v>750</v>
       </c>
       <c r="F88" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3509,7 +3785,7 @@
       </c>
       <c r="B89">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89">
         <f t="shared" si="6"/>
@@ -3517,13 +3793,13 @@
       </c>
       <c r="D89">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E89">
-        <v>666</v>
+        <v>752</v>
       </c>
       <c r="F89" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3533,21 +3809,21 @@
       </c>
       <c r="B90">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E90">
-        <v>669</v>
+        <v>754</v>
       </c>
       <c r="F90" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3565,13 +3841,13 @@
       </c>
       <c r="D91">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E91">
-        <v>670</v>
+        <v>756</v>
       </c>
       <c r="F91" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3585,17 +3861,17 @@
       </c>
       <c r="C92">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E92">
-        <v>674</v>
+        <v>758</v>
       </c>
       <c r="F92" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3613,13 +3889,13 @@
       </c>
       <c r="D93">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E93">
-        <v>678</v>
+        <v>759</v>
       </c>
       <c r="F93" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3637,13 +3913,13 @@
       </c>
       <c r="D94">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E94">
-        <v>682</v>
+        <v>761</v>
       </c>
       <c r="F94" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3657,17 +3933,17 @@
       </c>
       <c r="C95">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E95">
-        <v>683</v>
+        <v>763</v>
       </c>
       <c r="F95" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3677,21 +3953,21 @@
       </c>
       <c r="B96">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E96">
-        <v>688</v>
+        <v>764</v>
       </c>
       <c r="F96" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3701,21 +3977,21 @@
       </c>
       <c r="B97">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E97">
-        <v>689</v>
+        <v>766</v>
       </c>
       <c r="F97" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3733,13 +4009,13 @@
       </c>
       <c r="D98">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E98">
-        <v>693</v>
+        <v>768</v>
       </c>
       <c r="F98" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3753,17 +4029,17 @@
       </c>
       <c r="C99">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E99">
-        <v>694</v>
+        <v>771</v>
       </c>
       <c r="F99" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3781,13 +4057,13 @@
       </c>
       <c r="D100">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E100">
-        <v>698</v>
+        <v>772</v>
       </c>
       <c r="F100" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3805,13 +4081,13 @@
       </c>
       <c r="D101">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E101">
-        <v>699</v>
+        <v>773</v>
       </c>
       <c r="F101" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3821,21 +4097,21 @@
       </c>
       <c r="B102">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D102">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E102">
-        <v>703</v>
+        <v>775</v>
       </c>
       <c r="F102" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3853,13 +4129,13 @@
       </c>
       <c r="D103">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E103">
-        <v>704</v>
+        <v>777</v>
       </c>
       <c r="F103" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3877,13 +4153,13 @@
       </c>
       <c r="D104">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E104">
-        <v>708</v>
+        <v>780</v>
       </c>
       <c r="F104" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3901,13 +4177,13 @@
       </c>
       <c r="D105">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E105">
-        <v>709</v>
+        <v>781</v>
       </c>
       <c r="F105" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3925,13 +4201,13 @@
       </c>
       <c r="D106">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E106">
-        <v>714</v>
+        <v>784</v>
       </c>
       <c r="F106" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3949,13 +4225,13 @@
       </c>
       <c r="D107">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E107">
-        <v>715</v>
+        <v>785</v>
       </c>
       <c r="F107" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3973,13 +4249,13 @@
       </c>
       <c r="D108">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E108">
-        <v>720</v>
+        <v>788</v>
       </c>
       <c r="F108" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3997,13 +4273,13 @@
       </c>
       <c r="D109">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E109">
-        <v>721</v>
+        <v>789</v>
       </c>
       <c r="F109" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -4013,21 +4289,21 @@
       </c>
       <c r="B110">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D110">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E110">
-        <v>725</v>
+        <v>792</v>
       </c>
       <c r="F110" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -4041,17 +4317,17 @@
       </c>
       <c r="C111">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D111">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="E111">
-        <v>726</v>
+        <v>795</v>
       </c>
       <c r="F111" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -4072,10 +4348,10 @@
         <v>4</v>
       </c>
       <c r="E112">
-        <v>728</v>
+        <v>796</v>
       </c>
       <c r="F112" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -4096,10 +4372,10 @@
         <v>3</v>
       </c>
       <c r="E113">
-        <v>734</v>
+        <v>797</v>
       </c>
       <c r="F113" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -4120,10 +4396,10 @@
         <v>2</v>
       </c>
       <c r="E114">
-        <v>737</v>
+        <v>800</v>
       </c>
       <c r="F114" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -4133,21 +4409,21 @@
       </c>
       <c r="B115">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C115">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D115">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E115">
-        <v>738</v>
+        <v>801</v>
       </c>
       <c r="F115" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -4165,13 +4441,13 @@
       </c>
       <c r="D116">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E116">
-        <v>742</v>
+        <v>805</v>
       </c>
       <c r="F116" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -4189,13 +4465,13 @@
       </c>
       <c r="D117">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E117">
-        <v>743</v>
+        <v>809</v>
       </c>
       <c r="F117" t="s">
-        <v>105</v>
+        <v>197</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -4213,13 +4489,13 @@
       </c>
       <c r="D118">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E118">
-        <v>745</v>
+        <v>812</v>
       </c>
       <c r="F118" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -4229,21 +4505,21 @@
       </c>
       <c r="B119">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C119">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D119">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="E119">
-        <v>754</v>
+        <v>813</v>
       </c>
       <c r="F119" t="s">
-        <v>101</v>
+        <v>198</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -4264,10 +4540,10 @@
         <v>2</v>
       </c>
       <c r="E120">
-        <v>760</v>
+        <v>816</v>
       </c>
       <c r="F120" t="s">
-        <v>102</v>
+        <v>153</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -4288,10 +4564,10 @@
         <v>3</v>
       </c>
       <c r="E121">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F121" t="s">
-        <v>106</v>
+        <v>199</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -4312,10 +4588,10 @@
         <v>2</v>
       </c>
       <c r="E122">
-        <v>765</v>
+        <v>820</v>
       </c>
       <c r="F122" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -4336,10 +4612,10 @@
         <v>3</v>
       </c>
       <c r="E123">
-        <v>766</v>
+        <v>821</v>
       </c>
       <c r="F123" t="s">
-        <v>108</v>
+        <v>200</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -4360,10 +4636,10 @@
         <v>2</v>
       </c>
       <c r="E124">
-        <v>770</v>
+        <v>825</v>
       </c>
       <c r="F124" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -4384,10 +4660,10 @@
         <v>3</v>
       </c>
       <c r="E125">
-        <v>771</v>
+        <v>826</v>
       </c>
       <c r="F125" t="s">
-        <v>110</v>
+        <v>201</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -4408,10 +4684,10 @@
         <v>2</v>
       </c>
       <c r="E126">
-        <v>776</v>
+        <v>829</v>
       </c>
       <c r="F126" t="s">
-        <v>111</v>
+        <v>202</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -4432,10 +4708,10 @@
         <v>3</v>
       </c>
       <c r="E127">
-        <v>777</v>
+        <v>830</v>
       </c>
       <c r="F127" t="s">
-        <v>112</v>
+        <v>203</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -4445,21 +4721,21 @@
       </c>
       <c r="B128">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C128">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D128">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E128">
-        <v>782</v>
+        <v>832</v>
       </c>
       <c r="F128" t="s">
-        <v>113</v>
+        <v>204</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -4469,21 +4745,21 @@
       </c>
       <c r="B129">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D129">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="E129">
-        <v>783</v>
+        <v>834</v>
       </c>
       <c r="F129" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -4504,10 +4780,10 @@
         <v>2</v>
       </c>
       <c r="E130">
-        <v>787</v>
+        <v>836</v>
       </c>
       <c r="F130" t="s">
-        <v>115</v>
+        <v>205</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -4528,10 +4804,10 @@
         <v>3</v>
       </c>
       <c r="E131">
-        <v>788</v>
+        <v>837</v>
       </c>
       <c r="F131" t="s">
-        <v>116</v>
+        <v>206</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -4552,10 +4828,10 @@
         <v>2</v>
       </c>
       <c r="E132">
-        <v>792</v>
+        <v>842</v>
       </c>
       <c r="F132" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -4576,10 +4852,10 @@
         <v>3</v>
       </c>
       <c r="E133">
-        <v>793</v>
+        <v>843</v>
       </c>
       <c r="F133" t="s">
-        <v>118</v>
+        <v>207</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -4600,10 +4876,10 @@
         <v>2</v>
       </c>
       <c r="E134">
-        <v>797</v>
+        <v>847</v>
       </c>
       <c r="F134" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -4624,10 +4900,10 @@
         <v>3</v>
       </c>
       <c r="E135">
-        <v>798</v>
+        <v>848</v>
       </c>
       <c r="F135" t="s">
-        <v>120</v>
+        <v>208</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -4648,10 +4924,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>802</v>
+        <v>852</v>
       </c>
       <c r="F136" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -4672,10 +4948,10 @@
         <v>3</v>
       </c>
       <c r="E137">
-        <v>803</v>
+        <v>853</v>
       </c>
       <c r="F137" t="s">
-        <v>122</v>
+        <v>209</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -4696,10 +4972,10 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>815</v>
+        <v>857</v>
       </c>
       <c r="F138" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -4720,10 +4996,10 @@
         <v>3</v>
       </c>
       <c r="E139">
-        <v>816</v>
+        <v>858</v>
       </c>
       <c r="F139" t="s">
-        <v>124</v>
+        <v>210</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -4733,21 +5009,21 @@
       </c>
       <c r="B140">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D140">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E140">
-        <v>825</v>
+        <v>862</v>
       </c>
       <c r="F140" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -4761,17 +5037,17 @@
       </c>
       <c r="C141">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D141">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E141">
-        <v>827</v>
+        <v>863</v>
       </c>
       <c r="F141" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -4789,13 +5065,13 @@
       </c>
       <c r="D142">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E142">
-        <v>829</v>
+        <v>868</v>
       </c>
       <c r="F142" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -4805,21 +5081,21 @@
       </c>
       <c r="B143">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C143">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D143">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E143">
-        <v>834</v>
+        <v>869</v>
       </c>
       <c r="F143" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -4829,21 +5105,21 @@
       </c>
       <c r="B144">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C144">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D144">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E144">
-        <v>835</v>
+        <v>874</v>
       </c>
       <c r="F144" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -4861,13 +5137,13 @@
       </c>
       <c r="D145">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E145">
-        <v>841</v>
+        <v>875</v>
       </c>
       <c r="F145" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -4885,13 +5161,13 @@
       </c>
       <c r="D146">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E146">
-        <v>844</v>
+        <v>879</v>
       </c>
       <c r="F146" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -4901,21 +5177,21 @@
       </c>
       <c r="B147">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C147">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D147">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E147">
-        <v>846</v>
+        <v>880</v>
       </c>
       <c r="F147" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -4933,13 +5209,13 @@
       </c>
       <c r="D148">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E148">
-        <v>851</v>
+        <v>882</v>
       </c>
       <c r="F148" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -4957,13 +5233,13 @@
       </c>
       <c r="D149">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E149">
-        <v>858</v>
+        <v>888</v>
       </c>
       <c r="F149" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -4973,21 +5249,21 @@
       </c>
       <c r="B150">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C150">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D150">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E150">
-        <v>859</v>
+        <v>891</v>
       </c>
       <c r="F150" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -5005,13 +5281,13 @@
       </c>
       <c r="D151">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E151">
-        <v>861</v>
+        <v>892</v>
       </c>
       <c r="F151" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -5029,13 +5305,13 @@
       </c>
       <c r="D152">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E152">
-        <v>865</v>
+        <v>896</v>
       </c>
       <c r="F152" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -5045,21 +5321,21 @@
       </c>
       <c r="B153">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C153">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D153">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E153">
-        <v>867</v>
+        <v>897</v>
       </c>
       <c r="F153" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -5077,13 +5353,13 @@
       </c>
       <c r="D154">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E154">
-        <v>872</v>
+        <v>899</v>
       </c>
       <c r="F154" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -5093,21 +5369,21 @@
       </c>
       <c r="B155">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C155">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D155">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E155">
-        <v>873</v>
+        <v>908</v>
       </c>
       <c r="F155" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -5125,13 +5401,13 @@
       </c>
       <c r="D156">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E156">
-        <v>875</v>
+        <v>914</v>
       </c>
       <c r="F156" t="s">
-        <v>35</v>
+        <v>211</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -5141,21 +5417,21 @@
       </c>
       <c r="B157">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C157">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D157">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E157">
-        <v>880</v>
+        <v>918</v>
       </c>
       <c r="F157" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -5173,13 +5449,13 @@
       </c>
       <c r="D158">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E158">
-        <v>885</v>
+        <v>924</v>
       </c>
       <c r="F158" t="s">
-        <v>137</v>
+        <v>88</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -5197,13 +5473,13 @@
       </c>
       <c r="D159">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E159">
-        <v>887</v>
+        <v>927</v>
       </c>
       <c r="F159" t="s">
-        <v>138</v>
+        <v>212</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -5221,13 +5497,13 @@
       </c>
       <c r="D160">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E160">
-        <v>891</v>
+        <v>931</v>
       </c>
       <c r="F160" t="s">
-        <v>183</v>
+        <v>91</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -5237,21 +5513,21 @@
       </c>
       <c r="B161">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D161">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E161">
-        <v>896</v>
+        <v>937</v>
       </c>
       <c r="F161" t="s">
-        <v>139</v>
+        <v>88</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -5269,13 +5545,13 @@
       </c>
       <c r="D162">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E162">
-        <v>900</v>
+        <v>943</v>
       </c>
       <c r="F162" t="s">
-        <v>140</v>
+        <v>213</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -5285,21 +5561,21 @@
       </c>
       <c r="B163">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C163">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D163">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E163">
-        <v>902</v>
+        <v>944</v>
       </c>
       <c r="F163" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -5309,21 +5585,21 @@
       </c>
       <c r="B164">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C164">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D164">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E164">
-        <v>906</v>
+        <v>948</v>
       </c>
       <c r="F164" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -5341,13 +5617,13 @@
       </c>
       <c r="D165">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E165">
-        <v>907</v>
+        <v>949</v>
       </c>
       <c r="F165" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -5357,21 +5633,21 @@
       </c>
       <c r="B166">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C166">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D166">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E166">
-        <v>909</v>
+        <v>953</v>
       </c>
       <c r="F166" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -5381,27 +5657,27 @@
       </c>
       <c r="B167">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C167">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D167">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E167">
-        <v>911</v>
+        <v>954</v>
       </c>
       <c r="F167" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="str">
         <f t="shared" si="8"/>
-        <v>ERROR</v>
+        <v/>
       </c>
       <c r="B168">
         <f t="shared" si="9"/>
@@ -5413,13 +5689,13 @@
       </c>
       <c r="D168">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E168">
-        <v>912</v>
+        <v>959</v>
       </c>
       <c r="F168" t="s">
-        <v>146</v>
+        <v>98</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -5437,13 +5713,13 @@
       </c>
       <c r="D169">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E169">
-        <v>914</v>
+        <v>960</v>
       </c>
       <c r="F169" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -5453,21 +5729,21 @@
       </c>
       <c r="B170">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C170">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D170">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E170">
-        <v>916</v>
+        <v>965</v>
       </c>
       <c r="F170" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -5477,27 +5753,27 @@
       </c>
       <c r="B171">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C171">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D171">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E171">
-        <v>930</v>
+        <v>966</v>
       </c>
       <c r="F171" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="str">
         <f t="shared" si="8"/>
-        <v>ERROR</v>
+        <v/>
       </c>
       <c r="B172">
         <f t="shared" si="9"/>
@@ -5509,13 +5785,13 @@
       </c>
       <c r="D172">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E172">
-        <v>932</v>
+        <v>970</v>
       </c>
       <c r="F172" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -5533,13 +5809,13 @@
       </c>
       <c r="D173">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E173">
-        <v>938</v>
+        <v>971</v>
       </c>
       <c r="F173" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -5549,21 +5825,21 @@
       </c>
       <c r="B174">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C174">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D174">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E174">
-        <v>942</v>
+        <v>975</v>
       </c>
       <c r="F174" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -5573,21 +5849,21 @@
       </c>
       <c r="B175">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C175">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D175">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E175">
-        <v>947</v>
+        <v>976</v>
       </c>
       <c r="F175" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -5597,21 +5873,21 @@
       </c>
       <c r="B176">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C176">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D176">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E176">
-        <v>948</v>
+        <v>980</v>
       </c>
       <c r="F176" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -5621,27 +5897,27 @@
       </c>
       <c r="B177">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C177">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D177">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E177">
-        <v>953</v>
+        <v>981</v>
       </c>
       <c r="F177" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="str">
         <f t="shared" si="8"/>
-        <v>ERROR</v>
+        <v/>
       </c>
       <c r="B178">
         <f t="shared" si="9"/>
@@ -5653,13 +5929,13 @@
       </c>
       <c r="D178">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E178">
-        <v>955</v>
+        <v>985</v>
       </c>
       <c r="F178" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -5677,13 +5953,13 @@
       </c>
       <c r="D179">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E179">
-        <v>967</v>
+        <v>986</v>
       </c>
       <c r="F179" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -5693,21 +5969,21 @@
       </c>
       <c r="B180">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C180">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D180">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E180">
-        <v>978</v>
+        <v>998</v>
       </c>
       <c r="F180" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -5717,21 +5993,21 @@
       </c>
       <c r="B181">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C181">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D181">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E181">
-        <v>981</v>
+        <v>999</v>
       </c>
       <c r="F181" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -5749,13 +6025,13 @@
       </c>
       <c r="D182">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E182">
-        <v>982</v>
+        <v>1008</v>
       </c>
       <c r="F182" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -5765,7 +6041,7 @@
       </c>
       <c r="B183">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C183">
         <f t="shared" si="10"/>
@@ -5776,16 +6052,16 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>985</v>
+        <v>1010</v>
       </c>
       <c r="F183" t="s">
-        <v>20</v>
+        <v>113</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="str">
         <f t="shared" si="8"/>
-        <v>ERROR</v>
+        <v/>
       </c>
       <c r="B184">
         <f t="shared" si="9"/>
@@ -5800,10 +6076,10 @@
         <v>1</v>
       </c>
       <c r="E184">
-        <v>989</v>
+        <v>1012</v>
       </c>
       <c r="F184" t="s">
-        <v>157</v>
+        <v>30</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -5813,45 +6089,45 @@
       </c>
       <c r="B185">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C185">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D185">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E185">
-        <v>992</v>
+        <v>1017</v>
       </c>
       <c r="F185" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="str">
         <f t="shared" si="8"/>
-        <v>ERROR</v>
+        <v/>
       </c>
       <c r="B186">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C186">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D186">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E186">
-        <v>998</v>
+        <v>1018</v>
       </c>
       <c r="F186" t="s">
-        <v>159</v>
+        <v>214</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -5872,10 +6148,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>1002</v>
+        <v>1022</v>
       </c>
       <c r="F187" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -5885,21 +6161,21 @@
       </c>
       <c r="B188">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C188">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D188">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E188">
-        <v>1005</v>
+        <v>1024</v>
       </c>
       <c r="F188" t="s">
-        <v>161</v>
+        <v>215</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -5917,13 +6193,13 @@
       </c>
       <c r="D189">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E189">
-        <v>1008</v>
+        <v>1025</v>
       </c>
       <c r="F189" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -5933,21 +6209,21 @@
       </c>
       <c r="B190">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C190">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D190">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E190">
-        <v>1011</v>
+        <v>1026</v>
       </c>
       <c r="F190" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -5968,10 +6244,10 @@
         <v>2</v>
       </c>
       <c r="E191">
-        <v>1014</v>
+        <v>1030</v>
       </c>
       <c r="F191" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -5981,21 +6257,21 @@
       </c>
       <c r="B192">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C192">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D192">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E192">
-        <v>1017</v>
+        <v>1032</v>
       </c>
       <c r="F192" t="s">
-        <v>165</v>
+        <v>215</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -6005,21 +6281,21 @@
       </c>
       <c r="B193">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C193">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D193">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E193">
-        <v>1019</v>
+        <v>1033</v>
       </c>
       <c r="F193" t="s">
-        <v>166</v>
+        <v>218</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -6029,21 +6305,21 @@
       </c>
       <c r="B194">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C194">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D194">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E194">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="F194" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -6053,21 +6329,21 @@
       </c>
       <c r="B195">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C195">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D195">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="E195">
-        <v>1028</v>
+        <v>1037</v>
       </c>
       <c r="F195" t="s">
-        <v>168</v>
+        <v>220</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -6076,22 +6352,22 @@
         <v/>
       </c>
       <c r="B196">
-        <f t="shared" ref="B196:B207" si="13">COUNTIF($F196,"*{*")</f>
-        <v>0</v>
+        <f t="shared" ref="B196:B259" si="13">COUNTIF($F196,"*{*")</f>
+        <v>1</v>
       </c>
       <c r="C196">
-        <f t="shared" ref="C196:C207" si="14">COUNTIF($F196,"*}*")</f>
-        <v>1</v>
+        <f t="shared" ref="C196:C259" si="14">COUNTIF($F196,"*}*")</f>
+        <v>0</v>
       </c>
       <c r="D196">
         <f t="shared" ref="D196:D206" si="15">D195+B196-C196</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E196">
-        <v>1030</v>
+        <v>1038</v>
       </c>
       <c r="F196" t="s">
-        <v>169</v>
+        <v>221</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -6101,21 +6377,21 @@
       </c>
       <c r="B197">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C197">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D197">
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="E197">
-        <v>1037</v>
+        <v>1052</v>
       </c>
       <c r="F197" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -6136,10 +6412,10 @@
         <v>3</v>
       </c>
       <c r="E198">
-        <v>1039</v>
+        <v>1054</v>
       </c>
       <c r="F198" t="s">
-        <v>171</v>
+        <v>223</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -6153,17 +6429,17 @@
       </c>
       <c r="C199">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D199">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E199">
-        <v>1040</v>
+        <v>1055</v>
       </c>
       <c r="F199" t="s">
-        <v>172</v>
+        <v>224</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -6173,7 +6449,7 @@
       </c>
       <c r="B200">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C200">
         <f t="shared" si="14"/>
@@ -6181,13 +6457,13 @@
       </c>
       <c r="D200">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E200">
-        <v>1042</v>
+        <v>1056</v>
       </c>
       <c r="F200" t="s">
-        <v>173</v>
+        <v>225</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -6197,21 +6473,21 @@
       </c>
       <c r="B201">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C201">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D201">
         <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="E201">
-        <v>1044</v>
+        <v>1060</v>
       </c>
       <c r="F201" t="s">
-        <v>174</v>
+        <v>226</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -6221,31 +6497,31 @@
       </c>
       <c r="B202">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C202">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D202">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E202">
-        <v>1045</v>
+        <v>1061</v>
       </c>
       <c r="F202" t="s">
-        <v>175</v>
+        <v>227</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="str">
         <f t="shared" si="12"/>
-        <v>ERROR</v>
+        <v/>
       </c>
       <c r="B203">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C203">
         <f t="shared" si="14"/>
@@ -6253,13 +6529,13 @@
       </c>
       <c r="D203">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E203">
-        <v>1048</v>
+        <v>1062</v>
       </c>
       <c r="F203" t="s">
-        <v>176</v>
+        <v>228</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -6269,21 +6545,21 @@
       </c>
       <c r="B204">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C204">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D204">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E204">
-        <v>1052</v>
+        <v>1063</v>
       </c>
       <c r="F204" t="s">
-        <v>177</v>
+        <v>229</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -6293,21 +6569,21 @@
       </c>
       <c r="B205">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C205">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D205">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E205">
-        <v>1054</v>
+        <v>1067</v>
       </c>
       <c r="F205" t="s">
-        <v>178</v>
+        <v>118</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -6325,13 +6601,13 @@
       </c>
       <c r="D206">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E206">
-        <v>1056</v>
+        <v>1068</v>
       </c>
       <c r="F206" t="s">
-        <v>20</v>
+        <v>230</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -6345,13 +6621,2293 @@
       </c>
       <c r="D207">
         <f t="shared" ref="D207" si="16">D206+B207-C207</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E207">
-        <v>1058</v>
+        <v>1069</v>
       </c>
       <c r="F207" t="s">
-        <v>179</v>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B208">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="C208">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D208">
+        <f t="shared" ref="D208:D271" si="17">D207+B208-C208</f>
+        <v>1</v>
+      </c>
+      <c r="E208">
+        <v>1070</v>
+      </c>
+      <c r="F208" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B209">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D209">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E209">
+        <v>1072</v>
+      </c>
+      <c r="F209" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B210">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="C210">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D210">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="E210">
+        <v>1073</v>
+      </c>
+      <c r="F210" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B211">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="C211">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D211">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="E211">
+        <v>1078</v>
+      </c>
+      <c r="F211" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B212">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="C212">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="E212">
+        <v>1079</v>
+      </c>
+      <c r="F212" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="213" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B213">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="C213">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D213">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="E213">
+        <v>1081</v>
+      </c>
+      <c r="F213" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="214" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B214">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="C214">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D214">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="E214">
+        <v>1084</v>
+      </c>
+      <c r="F214" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B215">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="C215">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D215">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="E215">
+        <v>1087</v>
+      </c>
+      <c r="F215" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="216" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B216">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="C216">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D216">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="E216">
+        <v>1088</v>
+      </c>
+      <c r="F216" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="217" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B217">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="C217">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D217">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="E217">
+        <v>1089</v>
+      </c>
+      <c r="F217" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="218" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B218">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="C218">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D218">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="E218">
+        <v>1090</v>
+      </c>
+      <c r="F218" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="219" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B219">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="C219">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D219">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E219">
+        <v>1092</v>
+      </c>
+      <c r="F219" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="220" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B220">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="C220">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D220">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="E220">
+        <v>1093</v>
+      </c>
+      <c r="F220" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="221" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B221">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="C221">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D221">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="E221">
+        <v>1096</v>
+      </c>
+      <c r="F221" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="222" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B222">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D222">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>1100</v>
+      </c>
+      <c r="F222" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="223" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B223">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="C223">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="E223">
+        <v>1103</v>
+      </c>
+      <c r="F223" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="224" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B224">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="C224">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D224">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="E224">
+        <v>1104</v>
+      </c>
+      <c r="F224" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="225" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B225">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="C225">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="E225">
+        <v>1106</v>
+      </c>
+      <c r="F225" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="226" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B226">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="C226">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="E226">
+        <v>1109</v>
+      </c>
+      <c r="F226" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="227" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B227">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D227">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="E227">
+        <v>1112</v>
+      </c>
+      <c r="F227" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="228" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B228">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D228">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="E228">
+        <v>1113</v>
+      </c>
+      <c r="F228" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="229" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B229">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="C229">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D229">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="E229">
+        <v>1114</v>
+      </c>
+      <c r="F229" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="230" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B230">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D230">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>1115</v>
+      </c>
+      <c r="F230" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="231" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B231">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D231">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E231">
+        <v>1117</v>
+      </c>
+      <c r="F231" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="232" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B232">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="C232">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>1118</v>
+      </c>
+      <c r="F232" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="233" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B233">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="C233">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="E233">
+        <v>1122</v>
+      </c>
+      <c r="F233" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="234" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B234">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="C234">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D234">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="E234">
+        <v>1124</v>
+      </c>
+      <c r="F234" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="235" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B235">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="C235">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D235">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="E235">
+        <v>1126</v>
+      </c>
+      <c r="F235" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="236" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B236">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="C236">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D236">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="E236">
+        <v>1134</v>
+      </c>
+      <c r="F236" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="237" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B237">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="C237">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D237">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="E237">
+        <v>1135</v>
+      </c>
+      <c r="F237" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="238" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B238">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="C238">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D238">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="E238">
+        <v>1136</v>
+      </c>
+      <c r="F238" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="239" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B239">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="C239">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D239">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="E239">
+        <v>1138</v>
+      </c>
+      <c r="F239" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="240" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B240">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="C240">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D240">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="E240">
+        <v>1141</v>
+      </c>
+      <c r="F240" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="241" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B241">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="C241">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D241">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="E241">
+        <v>1142</v>
+      </c>
+      <c r="F241" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="242" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B242">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="C242">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D242">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="E242">
+        <v>1151</v>
+      </c>
+      <c r="F242" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="243" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B243">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="C243">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D243">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="E243">
+        <v>1161</v>
+      </c>
+      <c r="F243" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="244" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B244">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="C244">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D244">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="E244">
+        <v>1163</v>
+      </c>
+      <c r="F244" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="245" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B245">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="C245">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D245">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E245">
+        <v>1164</v>
+      </c>
+      <c r="F245" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="246" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B246">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="C246">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D246">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="E246">
+        <v>1165</v>
+      </c>
+      <c r="F246" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="247" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B247">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="C247">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D247">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="E247">
+        <v>1171</v>
+      </c>
+      <c r="F247" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="248" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B248">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="C248">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D248">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="E248">
+        <v>1174</v>
+      </c>
+      <c r="F248" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="249" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B249">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="C249">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D249">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="E249">
+        <v>1176</v>
+      </c>
+      <c r="F249" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="250" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B250">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="C250">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D250">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="E250">
+        <v>1181</v>
+      </c>
+      <c r="F250" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="251" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B251">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="C251">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D251">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E251">
+        <v>1188</v>
+      </c>
+      <c r="F251" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="252" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B252">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="C252">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D252">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="E252">
+        <v>1189</v>
+      </c>
+      <c r="F252" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="253" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B253">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="C253">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D253">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="E253">
+        <v>1192</v>
+      </c>
+      <c r="F253" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="254" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B254">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="C254">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D254">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="E254">
+        <v>1195</v>
+      </c>
+      <c r="F254" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="255" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B255">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="C255">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D255">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="E255">
+        <v>1197</v>
+      </c>
+      <c r="F255" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="256" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B256">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="C256">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D256">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="E256">
+        <v>1202</v>
+      </c>
+      <c r="F256" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="257" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B257">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="C257">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D257">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="E257">
+        <v>1204</v>
+      </c>
+      <c r="F257" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="258" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B258">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="C258">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D258">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="E258">
+        <v>1206</v>
+      </c>
+      <c r="F258" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="259" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B259">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="C259">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D259">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E259">
+        <v>1211</v>
+      </c>
+      <c r="F259" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="260" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B260">
+        <f t="shared" ref="B260:B321" si="18">COUNTIF($F260,"*{*")</f>
+        <v>0</v>
+      </c>
+      <c r="C260">
+        <f t="shared" ref="C260:C321" si="19">COUNTIF($F260,"*}*")</f>
+        <v>1</v>
+      </c>
+      <c r="D260">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="E260">
+        <v>1214</v>
+      </c>
+      <c r="F260" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="261" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B261">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="C261">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="D261">
+        <f t="shared" si="17"/>
+        <v>-2</v>
+      </c>
+      <c r="E261">
+        <v>1216</v>
+      </c>
+      <c r="F261" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="262" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B262">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="C262">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D262">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="E262">
+        <v>1220</v>
+      </c>
+      <c r="F262" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="263" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B263">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="C263">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D263">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E263">
+        <v>1225</v>
+      </c>
+      <c r="F263" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="264" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B264">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="C264">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="D264">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="E264">
+        <v>1253</v>
+      </c>
+      <c r="F264" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="265" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B265">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="C265">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D265">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E265">
+        <v>1261</v>
+      </c>
+      <c r="F265" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="266" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B266">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="C266">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="D266">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="E266">
+        <v>1265</v>
+      </c>
+      <c r="F266" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="267" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B267">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="C267">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="D267">
+        <f t="shared" si="17"/>
+        <v>-2</v>
+      </c>
+      <c r="E267">
+        <v>1268</v>
+      </c>
+      <c r="F267" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="268" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B268">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="C268">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D268">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="E268">
+        <v>1272</v>
+      </c>
+      <c r="F268" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="269" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B269">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="C269">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D269">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E269">
+        <v>1274</v>
+      </c>
+      <c r="F269" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="270" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B270">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="C270">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="D270">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="E270">
+        <v>1276</v>
+      </c>
+      <c r="F270" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="271" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B271">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="C271">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="D271">
+        <f t="shared" si="17"/>
+        <v>-2</v>
+      </c>
+      <c r="E271">
+        <v>1277</v>
+      </c>
+      <c r="F271" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="272" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B272">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="C272">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D272">
+        <f t="shared" ref="D272:D321" si="20">D271+B272-C272</f>
+        <v>-1</v>
+      </c>
+      <c r="E272">
+        <v>1279</v>
+      </c>
+      <c r="F272" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="273" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B273">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="C273">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D273">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E273">
+        <v>1281</v>
+      </c>
+      <c r="F273" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="274" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B274">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="C274">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="D274">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="E274">
+        <v>1295</v>
+      </c>
+      <c r="F274" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="275" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B275">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="C275">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="D275">
+        <f t="shared" si="20"/>
+        <v>-2</v>
+      </c>
+      <c r="E275">
+        <v>1297</v>
+      </c>
+      <c r="F275" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="276" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B276">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="C276">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D276">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="E276">
+        <v>1303</v>
+      </c>
+      <c r="F276" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="277" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B277">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="C277">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D277">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E277">
+        <v>1307</v>
+      </c>
+      <c r="F277" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="278" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B278">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="C278">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="D278">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="E278">
+        <v>1312</v>
+      </c>
+      <c r="F278" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="279" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B279">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="C279">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D279">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E279">
+        <v>1313</v>
+      </c>
+      <c r="F279" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="280" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B280">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="C280">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="D280">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="E280">
+        <v>1318</v>
+      </c>
+      <c r="F280" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="281" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B281">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="C281">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="D281">
+        <f t="shared" si="20"/>
+        <v>-2</v>
+      </c>
+      <c r="E281">
+        <v>1320</v>
+      </c>
+      <c r="F281" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="282" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B282">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="C282">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D282">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="E282">
+        <v>1332</v>
+      </c>
+      <c r="F282" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="283" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B283">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="C283">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D283">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E283">
+        <v>1343</v>
+      </c>
+      <c r="F283" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="284" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B284">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="C284">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="D284">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="E284">
+        <v>1346</v>
+      </c>
+      <c r="F284" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="285" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B285">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="C285">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D285">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E285">
+        <v>1347</v>
+      </c>
+      <c r="F285" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="286" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B286">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="C286">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="D286">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="E286">
+        <v>1350</v>
+      </c>
+      <c r="F286" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="287" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B287">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="C287">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="D287">
+        <f t="shared" si="20"/>
+        <v>-2</v>
+      </c>
+      <c r="E287">
+        <v>1354</v>
+      </c>
+      <c r="F287" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="288" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B288">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="C288">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D288">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="E288">
+        <v>1357</v>
+      </c>
+      <c r="F288" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="289" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B289">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="C289">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="D289">
+        <f t="shared" si="20"/>
+        <v>-2</v>
+      </c>
+      <c r="E289">
+        <v>1363</v>
+      </c>
+      <c r="F289" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="290" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B290">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="C290">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D290">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="E290">
+        <v>1367</v>
+      </c>
+      <c r="F290" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="291" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B291">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="C291">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D291">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E291">
+        <v>1370</v>
+      </c>
+      <c r="F291" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="292" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B292">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="C292">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="D292">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="E292">
+        <v>1373</v>
+      </c>
+      <c r="F292" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="293" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B293">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="C293">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="D293">
+        <f t="shared" si="20"/>
+        <v>-2</v>
+      </c>
+      <c r="E293">
+        <v>1376</v>
+      </c>
+      <c r="F293" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="294" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B294">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="C294">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D294">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="E294">
+        <v>1379</v>
+      </c>
+      <c r="F294" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="295" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B295">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="C295">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D295">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E295">
+        <v>1382</v>
+      </c>
+      <c r="F295" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="296" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B296">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="C296">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D296">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="E296">
+        <v>1384</v>
+      </c>
+      <c r="F296" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="297" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B297">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="C297">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="D297">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E297">
+        <v>1392</v>
+      </c>
+      <c r="F297" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="298" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B298">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="C298">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="D298">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="E298">
+        <v>1393</v>
+      </c>
+      <c r="F298" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="299" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B299">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="C299">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="D299">
+        <f t="shared" si="20"/>
+        <v>-2</v>
+      </c>
+      <c r="E299">
+        <v>1395</v>
+      </c>
+      <c r="F299" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="300" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B300">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="C300">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D300">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="E300">
+        <v>1402</v>
+      </c>
+      <c r="F300" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="301" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B301">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="C301">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D301">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E301">
+        <v>1404</v>
+      </c>
+      <c r="F301" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="302" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B302">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="C302">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D302">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="E302">
+        <v>1405</v>
+      </c>
+      <c r="F302" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="303" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B303">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="C303">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="D303">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="E303">
+        <v>1407</v>
+      </c>
+      <c r="F303" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="304" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B304">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="C304">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="D304">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E304">
+        <v>1409</v>
+      </c>
+      <c r="F304" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="305" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B305">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="C305">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="D305">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="E305">
+        <v>1410</v>
+      </c>
+      <c r="F305" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="306" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B306">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="C306">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="D306">
+        <f t="shared" si="20"/>
+        <v>-2</v>
+      </c>
+      <c r="E306">
+        <v>1413</v>
+      </c>
+      <c r="F306" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="307" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B307">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="C307">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D307">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="E307">
+        <v>1417</v>
+      </c>
+      <c r="F307" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="308" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B308">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="C308">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D308">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E308">
+        <v>1419</v>
+      </c>
+      <c r="F308" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="309" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B309">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="C309">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="D309">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="E309">
+        <v>1421</v>
+      </c>
+      <c r="F309" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="310" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B310">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="C310">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="D310">
+        <f t="shared" si="20"/>
+        <v>-2</v>
+      </c>
+      <c r="E310">
+        <v>1423</v>
+      </c>
+      <c r="F310" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="311" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B311">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="C311">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D311">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="E311">
+        <v>1427</v>
+      </c>
+      <c r="F311" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="312" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B312">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="C312">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D312">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E312">
+        <v>1428</v>
+      </c>
+      <c r="F312" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="313" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B313">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="C313">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="D313">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E313">
+        <v>1430</v>
+      </c>
+      <c r="F313" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="314" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B314">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="C314">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="D314">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="E314">
+        <v>1432</v>
+      </c>
+      <c r="F314" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="315" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B315">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="C315">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="D315">
+        <f t="shared" si="20"/>
+        <v>-2</v>
+      </c>
+      <c r="E315">
+        <v>1433</v>
+      </c>
+      <c r="F315" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="316" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B316">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="C316">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D316">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="E316">
+        <v>1436</v>
+      </c>
+      <c r="F316" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="317" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B317">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="C317">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="D317">
+        <f t="shared" si="20"/>
+        <v>-2</v>
+      </c>
+      <c r="E317">
+        <v>1440</v>
+      </c>
+      <c r="F317" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="318" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B318">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="C318">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D318">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="E318">
+        <v>1443</v>
+      </c>
+      <c r="F318" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="319" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B319">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="C319">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="D319">
+        <f t="shared" si="20"/>
+        <v>-2</v>
+      </c>
+      <c r="E319">
+        <v>1446</v>
+      </c>
+      <c r="F319" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="320" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B320">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="C320">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D320">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="E320">
+        <v>1449</v>
+      </c>
+      <c r="F320" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="321" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B321">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="C321">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="D321">
+        <f t="shared" si="20"/>
+        <v>-2</v>
+      </c>
+      <c r="E321">
+        <v>1454</v>
+      </c>
+      <c r="F321" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
